--- a/code/ugolini_data.xlsx
+++ b/code/ugolini_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19590" windowHeight="7770" activeTab="1"/>
+    <workbookView windowWidth="15465" windowHeight="5340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data_trials" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3544" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3542" uniqueCount="20">
   <si>
     <t>specie</t>
   </si>
@@ -85,18 +85,15 @@
   <si>
     <t>seeds</t>
   </si>
-  <si>
-    <t>S_amarathus</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
@@ -151,14 +148,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,7 +193,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,22 +201,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +216,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -226,45 +231,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,6 +252,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -295,37 +292,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,73 +304,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,13 +340,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,31 +442,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,7 +472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,24 +495,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -531,27 +510,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -568,6 +530,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,153 +575,164 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -749,7 +746,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -29213,15 +29210,15 @@
   <dimension ref="A1:T127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="2" width="9.14285714285714"/>
     <col min="3" max="4" width="20.4666666666667" customWidth="true"/>
-    <col min="5" max="5" width="9.14285714285714"/>
-    <col min="6" max="11" width="22.752380952381" customWidth="true"/>
+    <col min="5" max="6" width="9.14285714285714"/>
+    <col min="7" max="11" width="22.752380952381" customWidth="true"/>
     <col min="12" max="12" width="25.3714285714286" customWidth="true"/>
     <col min="13" max="13" width="17.3714285714286" customWidth="true"/>
     <col min="14" max="15" width="9.14285714285714"/>
@@ -29248,7 +29245,7 @@
       <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -29388,10 +29385,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K8" s="3"/>
       <c r="T8" s="3"/>
@@ -29426,10 +29423,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K10" s="3"/>
       <c r="T10" s="3"/>
@@ -29445,10 +29442,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K11" s="3"/>
       <c r="T11" s="3"/>
@@ -29464,10 +29461,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K12" s="3"/>
       <c r="T12" s="3"/>
@@ -29483,10 +29480,10 @@
         <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K13" s="3"/>
       <c r="T13" s="3"/>
@@ -29559,10 +29556,10 @@
         <v>5</v>
       </c>
       <c r="D17" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K17" s="3"/>
       <c r="T17" s="3"/>
@@ -29578,10 +29575,10 @@
         <v>10</v>
       </c>
       <c r="D18" s="1">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1">
         <v>46</v>
-      </c>
-      <c r="E18" s="1">
-        <v>34</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
@@ -29595,10 +29592,10 @@
         <v>10</v>
       </c>
       <c r="D19" s="1">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1">
         <v>41</v>
-      </c>
-      <c r="E19" s="1">
-        <v>24</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:5">
@@ -29612,10 +29609,10 @@
         <v>10</v>
       </c>
       <c r="D20" s="1">
+        <v>29</v>
+      </c>
+      <c r="E20" s="1">
         <v>50</v>
-      </c>
-      <c r="E20" s="1">
-        <v>29</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:5">
@@ -29629,10 +29626,10 @@
         <v>10</v>
       </c>
       <c r="D21" s="1">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1">
         <v>31</v>
-      </c>
-      <c r="E21" s="1">
-        <v>20</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:5">
@@ -29646,10 +29643,10 @@
         <v>10</v>
       </c>
       <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
         <v>46</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:5">
@@ -29663,10 +29660,10 @@
         <v>10</v>
       </c>
       <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
         <v>40</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:5">
@@ -29680,10 +29677,10 @@
         <v>10</v>
       </c>
       <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
         <v>54</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:5">
@@ -29697,10 +29694,10 @@
         <v>10</v>
       </c>
       <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
         <v>50</v>
-      </c>
-      <c r="E25" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:5">
@@ -29714,10 +29711,10 @@
         <v>10</v>
       </c>
       <c r="D26" s="1">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1">
         <v>34</v>
-      </c>
-      <c r="E26" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
@@ -29731,10 +29728,10 @@
         <v>10</v>
       </c>
       <c r="D27" s="1">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1">
         <v>32</v>
-      </c>
-      <c r="E27" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
@@ -29748,10 +29745,10 @@
         <v>10</v>
       </c>
       <c r="D28" s="1">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
         <v>34</v>
-      </c>
-      <c r="E28" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
@@ -29765,10 +29762,10 @@
         <v>10</v>
       </c>
       <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
         <v>33</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
@@ -29782,10 +29779,10 @@
         <v>10</v>
       </c>
       <c r="D30" s="1">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1">
         <v>51</v>
-      </c>
-      <c r="E30" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
@@ -29799,10 +29796,10 @@
         <v>10</v>
       </c>
       <c r="D31" s="1">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1">
         <v>59</v>
-      </c>
-      <c r="E31" s="1">
-        <v>15</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -29816,10 +29813,10 @@
         <v>10</v>
       </c>
       <c r="D32" s="1">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1">
         <v>39</v>
-      </c>
-      <c r="E32" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:5">
@@ -29833,13 +29830,13 @@
         <v>10</v>
       </c>
       <c r="D33" s="1">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1">
         <v>57</v>
       </c>
-      <c r="E33" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" spans="1:5">
+    </row>
+    <row r="34" ht="14.25" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -29855,8 +29852,9 @@
       <c r="E34" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" ht="14.25" spans="1:5">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -29867,13 +29865,14 @@
         <v>11</v>
       </c>
       <c r="D35" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E35" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -29884,13 +29883,14 @@
         <v>11</v>
       </c>
       <c r="D36" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" ht="14.25" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -29901,13 +29901,14 @@
         <v>11</v>
       </c>
       <c r="D37" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E37" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" ht="14.25" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
@@ -29918,13 +29919,14 @@
         <v>11</v>
       </c>
       <c r="D38" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E38" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" ht="14.25" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -29940,8 +29942,9 @@
       <c r="E39" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" ht="14.25" spans="1:5">
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" ht="14.25" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
@@ -29957,8 +29960,9 @@
       <c r="E40" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" ht="14.25" spans="1:5">
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" ht="14.25" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
@@ -29974,8 +29978,9 @@
       <c r="E41" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" ht="14.25" spans="1:5">
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" ht="14.25" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -29986,13 +29991,14 @@
         <v>11</v>
       </c>
       <c r="D42" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E42" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" ht="14.25" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -30003,13 +30009,14 @@
         <v>11</v>
       </c>
       <c r="D43" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E43" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" ht="14.25" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -30020,13 +30027,14 @@
         <v>11</v>
       </c>
       <c r="D44" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E44" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" ht="14.25" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -30037,13 +30045,14 @@
         <v>11</v>
       </c>
       <c r="D45" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E45" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" ht="14.25" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -30054,13 +30063,14 @@
         <v>11</v>
       </c>
       <c r="D46" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E46" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" ht="14.25" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
@@ -30071,13 +30081,14 @@
         <v>11</v>
       </c>
       <c r="D47" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E47" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" ht="14.25" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>
@@ -30088,13 +30099,14 @@
         <v>11</v>
       </c>
       <c r="D48" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E48" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
@@ -30105,11 +30117,12 @@
         <v>11</v>
       </c>
       <c r="D49" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E49" s="1">
-        <v>6</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F49" s="1"/>
     </row>
     <row r="50" ht="14.25" spans="1:5">
       <c r="A50" s="1" t="s">
@@ -30139,10 +30152,10 @@
         <v>12</v>
       </c>
       <c r="D51" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E51" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:5">
@@ -30156,10 +30169,10 @@
         <v>12</v>
       </c>
       <c r="D52" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E52" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:5">
@@ -30173,10 +30186,10 @@
         <v>12</v>
       </c>
       <c r="D53" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" ht="14.25" spans="1:5">
@@ -30190,10 +30203,10 @@
         <v>12</v>
       </c>
       <c r="D54" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:5">
@@ -30207,10 +30220,10 @@
         <v>12</v>
       </c>
       <c r="D55" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:5">
@@ -30224,10 +30237,10 @@
         <v>12</v>
       </c>
       <c r="D56" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:5">
@@ -30275,10 +30288,10 @@
         <v>12</v>
       </c>
       <c r="D59" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E59" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:5">
@@ -30377,10 +30390,10 @@
         <v>12</v>
       </c>
       <c r="D65" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E65" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:5">
@@ -30394,10 +30407,10 @@
         <v>12</v>
       </c>
       <c r="D66" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E66" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:10">
@@ -30419,9 +30432,7 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
-      <c r="J67" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="J67" s="2"/>
     </row>
     <row r="68" ht="14.25" spans="1:10">
       <c r="A68" s="1" t="s">
@@ -30439,14 +30450,13 @@
       <c r="E68" s="1">
         <v>9</v>
       </c>
+      <c r="F68" s="1"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
-      <c r="J68" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" ht="14.25" spans="1:5">
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" ht="14.25" spans="1:6">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -30462,8 +30472,9 @@
       <c r="E69" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" ht="14.25" spans="1:5">
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" ht="14.25" spans="1:6">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -30479,8 +30490,9 @@
       <c r="E70" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" ht="14.25" spans="1:5">
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" ht="14.25" spans="1:6">
       <c r="A71" s="1" t="s">
         <v>7</v>
       </c>
@@ -30496,8 +30508,9 @@
       <c r="E71" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" ht="14.25" spans="1:5">
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" ht="14.25" spans="1:6">
       <c r="A72" s="1" t="s">
         <v>7</v>
       </c>
@@ -30513,8 +30526,9 @@
       <c r="E72" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" ht="14.25" spans="1:5">
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" ht="14.25" spans="1:6">
       <c r="A73" s="1" t="s">
         <v>7</v>
       </c>
@@ -30530,8 +30544,9 @@
       <c r="E73" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" ht="14.25" spans="1:5">
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" ht="14.25" spans="1:6">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -30547,8 +30562,9 @@
       <c r="E74" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" ht="14.25" spans="1:5">
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" ht="14.25" spans="1:6">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -30564,8 +30580,9 @@
       <c r="E75" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" ht="14.25" spans="1:5">
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" ht="14.25" spans="1:6">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -30581,8 +30598,9 @@
       <c r="E76" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="77" ht="14.25" spans="1:5">
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" ht="14.25" spans="1:6">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
@@ -30598,8 +30616,9 @@
       <c r="E77" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" ht="14.25" spans="1:5">
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" ht="14.25" spans="1:6">
       <c r="A78" s="1" t="s">
         <v>9</v>
       </c>
@@ -30615,8 +30634,9 @@
       <c r="E78" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" ht="14.25" spans="1:5">
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" ht="14.25" spans="1:6">
       <c r="A79" s="1" t="s">
         <v>9</v>
       </c>
@@ -30632,8 +30652,9 @@
       <c r="E79" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="80" ht="14.25" spans="1:5">
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" ht="14.25" spans="1:6">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -30649,8 +30670,9 @@
       <c r="E80" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="81" ht="14.25" spans="1:5">
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" ht="14.25" spans="1:6">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -30666,8 +30688,9 @@
       <c r="E81" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="82" ht="14.25" spans="1:5">
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" ht="14.25" spans="1:6">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -30683,8 +30706,9 @@
       <c r="E82" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="83" ht="14.25" spans="1:5">
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" ht="14.25" spans="1:6">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
@@ -30700,8 +30724,9 @@
       <c r="E83" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="84" ht="14.25" spans="1:5">
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" ht="14.25" spans="1:6">
       <c r="A84" s="1" t="s">
         <v>7</v>
       </c>
@@ -30717,8 +30742,9 @@
       <c r="E84" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="85" ht="14.25" spans="1:5">
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" ht="14.25" spans="1:6">
       <c r="A85" s="1" t="s">
         <v>7</v>
       </c>
@@ -30734,8 +30760,9 @@
       <c r="E85" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="86" ht="14.25" spans="1:5">
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" ht="14.25" spans="1:6">
       <c r="A86" s="1" t="s">
         <v>7</v>
       </c>
@@ -30751,8 +30778,9 @@
       <c r="E86" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="87" ht="14.25" spans="1:5">
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" ht="14.25" spans="1:6">
       <c r="A87" s="1" t="s">
         <v>7</v>
       </c>
@@ -30768,8 +30796,9 @@
       <c r="E87" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="88" ht="14.25" spans="1:5">
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" ht="14.25" spans="1:6">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -30785,8 +30814,9 @@
       <c r="E88" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="89" ht="14.25" spans="1:5">
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" ht="14.25" spans="1:6">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -30802,8 +30832,9 @@
       <c r="E89" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="90" ht="14.25" spans="1:5">
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" ht="14.25" spans="1:6">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -30819,8 +30850,9 @@
       <c r="E90" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="91" ht="14.25" spans="1:5">
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" ht="14.25" spans="1:6">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -30836,8 +30868,9 @@
       <c r="E91" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="92" ht="14.25" spans="1:5">
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" ht="14.25" spans="1:6">
       <c r="A92" s="1" t="s">
         <v>9</v>
       </c>
@@ -30853,8 +30886,9 @@
       <c r="E92" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="93" ht="14.25" spans="1:5">
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" ht="14.25" spans="1:6">
       <c r="A93" s="1" t="s">
         <v>9</v>
       </c>
@@ -30870,8 +30904,9 @@
       <c r="E93" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="94" ht="14.25" spans="1:5">
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" ht="14.25" spans="1:6">
       <c r="A94" s="1" t="s">
         <v>9</v>
       </c>
@@ -30887,8 +30922,9 @@
       <c r="E94" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="95" ht="14.25" spans="1:5">
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" ht="14.25" spans="1:6">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
@@ -30904,8 +30940,9 @@
       <c r="E95" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="96" ht="14.25" spans="1:5">
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" ht="14.25" spans="1:6">
       <c r="A96" s="1" t="s">
         <v>6</v>
       </c>
@@ -30921,8 +30958,9 @@
       <c r="E96" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" ht="14.25" spans="1:5">
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" ht="14.25" spans="1:6">
       <c r="A97" s="1" t="s">
         <v>6</v>
       </c>
@@ -30938,8 +30976,9 @@
       <c r="E97" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" ht="14.25" spans="1:5">
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" ht="14.25" spans="1:6">
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
@@ -30955,8 +30994,9 @@
       <c r="E98" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" ht="14.25" spans="1:5">
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" ht="14.25" spans="1:6">
       <c r="A99" s="1" t="s">
         <v>6</v>
       </c>
@@ -30972,8 +31012,9 @@
       <c r="E99" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" ht="14.25" spans="1:5">
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" ht="14.25" spans="1:6">
       <c r="A100" s="1" t="s">
         <v>7</v>
       </c>
@@ -30989,8 +31030,9 @@
       <c r="E100" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" ht="14.25" spans="1:5">
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" ht="14.25" spans="1:6">
       <c r="A101" s="1" t="s">
         <v>7</v>
       </c>
@@ -31006,8 +31048,9 @@
       <c r="E101" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="102" ht="14.25" spans="1:5">
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" ht="14.25" spans="1:6">
       <c r="A102" s="1" t="s">
         <v>7</v>
       </c>
@@ -31023,8 +31066,9 @@
       <c r="E102" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" ht="14.25" spans="1:5">
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" ht="14.25" spans="1:6">
       <c r="A103" s="1" t="s">
         <v>7</v>
       </c>
@@ -31040,8 +31084,9 @@
       <c r="E103" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="104" ht="14.25" spans="1:5">
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" ht="14.25" spans="1:6">
       <c r="A104" s="1" t="s">
         <v>8</v>
       </c>
@@ -31057,8 +31102,9 @@
       <c r="E104" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" ht="14.25" spans="1:5">
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" ht="14.25" spans="1:6">
       <c r="A105" s="1" t="s">
         <v>8</v>
       </c>
@@ -31074,8 +31120,9 @@
       <c r="E105" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="106" ht="14.25" spans="1:5">
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" ht="14.25" spans="1:6">
       <c r="A106" s="1" t="s">
         <v>8</v>
       </c>
@@ -31091,8 +31138,9 @@
       <c r="E106" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="107" ht="14.25" spans="1:5">
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" ht="14.25" spans="1:6">
       <c r="A107" s="1" t="s">
         <v>8</v>
       </c>
@@ -31108,8 +31156,9 @@
       <c r="E107" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="108" ht="14.25" spans="1:5">
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" ht="14.25" spans="1:6">
       <c r="A108" s="1" t="s">
         <v>9</v>
       </c>
@@ -31125,8 +31174,9 @@
       <c r="E108" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="109" ht="14.25" spans="1:5">
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" ht="14.25" spans="1:6">
       <c r="A109" s="1" t="s">
         <v>9</v>
       </c>
@@ -31142,8 +31192,9 @@
       <c r="E109" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="110" ht="14.25" spans="1:5">
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" ht="14.25" spans="1:6">
       <c r="A110" s="1" t="s">
         <v>9</v>
       </c>
@@ -31159,8 +31210,9 @@
       <c r="E110" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="111" ht="14.25" spans="1:5">
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" ht="14.25" spans="1:6">
       <c r="A111" s="1" t="s">
         <v>9</v>
       </c>
@@ -31176,8 +31228,9 @@
       <c r="E111" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="112" ht="14.25" spans="1:5">
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" ht="14.25" spans="1:6">
       <c r="A112" s="1" t="s">
         <v>6</v>
       </c>
@@ -31193,8 +31246,9 @@
       <c r="E112" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="113" ht="14.25" spans="1:5">
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" ht="14.25" spans="1:6">
       <c r="A113" s="1" t="s">
         <v>6</v>
       </c>
@@ -31210,8 +31264,9 @@
       <c r="E113" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="114" ht="14.25" spans="1:5">
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" ht="14.25" spans="1:6">
       <c r="A114" s="1" t="s">
         <v>6</v>
       </c>
@@ -31227,8 +31282,9 @@
       <c r="E114" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="115" ht="14.25" spans="1:5">
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" ht="14.25" spans="1:6">
       <c r="A115" s="1" t="s">
         <v>6</v>
       </c>
@@ -31244,8 +31300,9 @@
       <c r="E115" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="116" ht="14.25" spans="1:5">
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" ht="14.25" spans="1:6">
       <c r="A116" s="1" t="s">
         <v>7</v>
       </c>
@@ -31261,8 +31318,9 @@
       <c r="E116" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="117" ht="14.25" spans="1:5">
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" ht="14.25" spans="1:6">
       <c r="A117" s="1" t="s">
         <v>7</v>
       </c>
@@ -31278,8 +31336,9 @@
       <c r="E117" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="118" ht="14.25" spans="1:5">
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" ht="14.25" spans="1:6">
       <c r="A118" s="1" t="s">
         <v>7</v>
       </c>
@@ -31295,8 +31354,9 @@
       <c r="E118" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="119" ht="14.25" spans="1:5">
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" ht="14.25" spans="1:6">
       <c r="A119" s="1" t="s">
         <v>7</v>
       </c>
@@ -31312,8 +31372,9 @@
       <c r="E119" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="120" ht="14.25" spans="1:5">
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" ht="14.25" spans="1:6">
       <c r="A120" s="1" t="s">
         <v>8</v>
       </c>
@@ -31329,8 +31390,9 @@
       <c r="E120" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="121" ht="14.25" spans="1:5">
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" ht="14.25" spans="1:6">
       <c r="A121" s="1" t="s">
         <v>8</v>
       </c>
@@ -31346,8 +31408,9 @@
       <c r="E121" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="122" ht="14.25" spans="1:5">
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" ht="14.25" spans="1:6">
       <c r="A122" s="1" t="s">
         <v>8</v>
       </c>
@@ -31363,8 +31426,9 @@
       <c r="E122" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="123" ht="14.25" spans="1:5">
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" ht="14.25" spans="1:6">
       <c r="A123" s="1" t="s">
         <v>8</v>
       </c>
@@ -31380,8 +31444,9 @@
       <c r="E123" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="124" ht="14.25" spans="1:5">
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" ht="14.25" spans="1:6">
       <c r="A124" s="1" t="s">
         <v>9</v>
       </c>
@@ -31397,8 +31462,9 @@
       <c r="E124" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="125" ht="14.25" spans="1:5">
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" ht="14.25" spans="1:6">
       <c r="A125" s="1" t="s">
         <v>9</v>
       </c>
@@ -31414,8 +31480,9 @@
       <c r="E125" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="126" ht="14.25" spans="1:5">
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" ht="14.25" spans="1:6">
       <c r="A126" s="1" t="s">
         <v>9</v>
       </c>
@@ -31431,8 +31498,9 @@
       <c r="E126" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="127" ht="14.25" spans="1:5">
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" ht="14.25" spans="1:6">
       <c r="A127" s="1" t="s">
         <v>9</v>
       </c>
@@ -31448,6 +31516,7 @@
       <c r="E127" s="1">
         <v>20</v>
       </c>
+      <c r="F127" s="1"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
